--- a/src/public/plantilla.xlsx
+++ b/src/public/plantilla.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresguevara/projects/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andresguevara/projects/three-render/src/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237DCCDF-ACD2-0549-9CEB-0665DE1FA1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13E4D67-CDFD-5F4D-AB5C-342BA756CF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="3" xr2:uid="{5D01DFB4-AEEC-4238-8027-960F78203D4E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="7" xr2:uid="{5D01DFB4-AEEC-4238-8027-960F78203D4E}"/>
   </bookViews>
   <sheets>
     <sheet name="EJEMPLO" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="23">
   <si>
     <t>Sensor</t>
   </si>
@@ -78,9 +78,6 @@
     <t>EDAD</t>
   </si>
   <si>
-    <t>GENERO</t>
-  </si>
-  <si>
     <t>INFORMACION DEL USUARIO</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>IZQUIERDO</t>
   </si>
   <si>
-    <t>FECHA MUESTRA TOMADA</t>
-  </si>
-  <si>
     <t>MASCULINO</t>
   </si>
   <si>
@@ -114,7 +108,10 @@
     <t>PROMEDIO PRUEBAS</t>
   </si>
   <si>
-    <t>FECHA PROMEDIO DE LAS MUESTRAS TOMADAS</t>
+    <t>FECHA DE LA MUESTRA</t>
+  </si>
+  <si>
+    <t>SEXO</t>
   </si>
 </sst>
 </file>
@@ -696,7 +693,7 @@
   <dimension ref="A1:EK102"/>
   <sheetViews>
     <sheetView zoomScale="182" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -708,12 +705,12 @@
   <sheetData>
     <row r="1" spans="1:141" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="24"/>
       <c r="E1" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
@@ -726,31 +723,31 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>15</v>
-      </c>
       <c r="J2" s="11" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="EK2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:141" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -779,10 +776,10 @@
         <v>168</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="EK3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:141" x14ac:dyDescent="0.2">
@@ -1894,7 +1891,7 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1912,7 +1909,7 @@
       <c r="B1" s="23"/>
       <c r="C1" s="24"/>
       <c r="E1" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
@@ -1925,28 +1922,28 @@
         <v>2</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>15</v>
-      </c>
       <c r="J2" s="11" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2685,7 +2682,7 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView zoomScale="116" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C13" sqref="C13:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2702,7 +2699,7 @@
       <c r="B1" s="23"/>
       <c r="C1" s="24"/>
       <c r="E1" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
@@ -2715,28 +2712,28 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>15</v>
-      </c>
       <c r="J2" s="11" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3476,8 +3473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414EBCB9-0A4F-4B8C-B6BB-0EE2043945DB}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3496,7 +3493,7 @@
       <c r="B1" s="23"/>
       <c r="C1" s="24"/>
       <c r="E1" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
@@ -3509,28 +3506,28 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>15</v>
-      </c>
       <c r="J2" s="11" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -4269,7 +4266,7 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4286,7 +4283,7 @@
       <c r="B1" s="23"/>
       <c r="C1" s="24"/>
       <c r="E1" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
@@ -4299,28 +4296,28 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>15</v>
-      </c>
       <c r="J2" s="11" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5059,7 +5056,7 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5075,7 +5072,7 @@
       <c r="B1" s="23"/>
       <c r="C1" s="24"/>
       <c r="E1" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
@@ -5088,28 +5085,28 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>15</v>
-      </c>
       <c r="J2" s="11" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5848,7 +5845,7 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5864,7 +5861,7 @@
       <c r="B1" s="23"/>
       <c r="C1" s="24"/>
       <c r="E1" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
@@ -5877,28 +5874,28 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>15</v>
-      </c>
       <c r="J2" s="11" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -6636,8 +6633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45308B84-627D-4144-9B02-295C687159CC}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6647,12 +6644,12 @@
   <sheetData>
     <row r="1" spans="1:10" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="24"/>
       <c r="E1" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
@@ -6660,33 +6657,33 @@
       <c r="I1" s="23"/>
       <c r="J1" s="24"/>
     </row>
-    <row r="2" spans="1:10" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>15</v>
-      </c>
       <c r="J2" s="11" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
